--- a/database/httpswwwinstagramcomrochurbaniak.xlsx
+++ b/database/httpswwwinstagramcomrochurbaniak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,6 +861,14 @@
       </c>
       <c r="B45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/href="/"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwinstagramcomrochurbaniak.xlsx
+++ b/database/httpswwwinstagramcomrochurbaniak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,46 @@
       </c>
       <c r="B46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://itunes.apple.com/app/instagram/id389801252?pt=428156&amp;amp;ct=igweb.loginPage.badge&amp;amp;mt=8&amp;amp;vt=lo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=com.instagram.android&amp;amp;referrer=utm_source%3Dinstagramweb%26utm_campaign%3DloginPage%26ig_mid%3D7E5B065F-69EF-4D0A-BEB2-7FFB81501167%26utm_content%3Dlo%26utm_medium%3Dbadge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/emailsignup/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zarejestruj się</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/password/reset/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nie pamiętasz hasła?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
